--- a/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Graduação (bacharelado).xlsx
+++ b/report/reliability/comb/Campus Sertão (Delmiro Gouveia e Santana do Ipanema)-Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.78492425849597</v>
+        <v>0.7402532403957155</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7998449032964198</v>
+        <v>0.7626940631629643</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.902913259629679</v>
+        <v>0.885519389155896</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2498183429000517</v>
+        <v>0.19822225319794043</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.9961255869539536</v>
+        <v>3.213969584278572</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.027627116974356488</v>
+        <v>0.031207507339348364</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.49822695035461</v>
+        <v>1.9110747408619748</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7261736590143353</v>
+        <v>0.5962891507527469</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.18905021417751616</v>
+        <v>0.15698894326185786</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7565196384925823</v>
+        <v>0.7413339929730961</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7685366073997569</v>
+        <v>0.7572067889592131</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8784712394044422</v>
+        <v>0.8807255449849927</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.2318616850478688</v>
+        <v>0.20628260701903475</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.3203376083192744</v>
+        <v>3.1187313093034126</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.03131820034383473</v>
+        <v>0.03174609058567592</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04322499271211575</v>
+        <v>0.06333421957904734</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.18008308175508297</v>
+        <v>0.1686827076323972</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7689283299839786</v>
+        <v>0.7116485298069195</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.782929302233202</v>
+        <v>0.7315879224530399</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8912288969866812</v>
+        <v>0.865986735247344</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2469257827189813</v>
+        <v>0.18509344505376968</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.6067940550608673</v>
+        <v>2.7256147679310194</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.029807171929144633</v>
+        <v>0.03445992419958425</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04483616665335426</v>
+        <v>0.06423197490554243</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.1943056105285619</v>
+        <v>0.13950044534645167</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7595919643700279</v>
+        <v>0.7278266704718123</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7704370311190576</v>
+        <v>0.7472233778770019</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8793662464032428</v>
+        <v>0.8736904320765815</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.23377536430598936</v>
+        <v>0.19764975794171571</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.356103272556241</v>
+        <v>2.9560620424519004</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.030924838794352736</v>
+        <v>0.03253999357108683</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04317095814949262</v>
+        <v>0.0630673952458357</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.18437100855710886</v>
+        <v>0.1613046089520193</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7603699572762675</v>
+        <v>0.7281063315815208</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7743004527689838</v>
+        <v>0.738528530861968</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8834975385318186</v>
+        <v>0.8652679627453019</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2377345806439757</v>
+        <v>0.19052968569579923</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.4306690565774325</v>
+        <v>2.8245090498653824</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.030850391717227352</v>
+        <v>0.033096475258072154</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.044116229916066396</v>
+        <v>0.04853642336513867</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1943056105285619</v>
+        <v>0.15698894326185786</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7667445265210461</v>
+        <v>0.7044839275398319</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7867292512418645</v>
+        <v>0.733321431555537</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8667498350595702</v>
+        <v>0.8598133447976086</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2511339645851417</v>
+        <v>0.18643144678813828</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.688875552896718</v>
+        <v>2.749832638719352</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.029898224852285972</v>
+        <v>0.03533050110209285</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04054955862665414</v>
+        <v>0.04841964598476968</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.1884452044163123</v>
+        <v>0.15276603175699013</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7719938635251801</v>
+        <v>0.711068164794579</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7903207478293207</v>
+        <v>0.7377648015328644</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8685117877694415</v>
+        <v>0.8628200728161729</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.25520623105668594</v>
+        <v>0.1899210306658117</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.7691890811685957</v>
+        <v>2.8133706147968702</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.02923706105116361</v>
+        <v>0.03449434901587032</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03992769432903789</v>
+        <v>0.048219423781279094</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.1943056105285619</v>
+        <v>0.15698894326185786</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7831844140471448</v>
+        <v>0.744097726493992</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8022000675139741</v>
+        <v>0.7771946904314034</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8910713502509113</v>
+        <v>0.8919720915018277</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.26937550348558814</v>
+        <v>0.22521778617400898</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.0556134546236375</v>
+        <v>3.488223381822611</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.027901289111725545</v>
+        <v>0.03148613988080087</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04307940824623406</v>
+        <v>0.059439875198785214</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.1943056105285619</v>
+        <v>0.1686827076323972</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7941478458300012</v>
+        <v>0.7362088932016239</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8021612267421286</v>
+        <v>0.7589298108130839</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8916957294444217</v>
+        <v>0.8717570334777325</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2693273337006429</v>
+        <v>0.20782507614593645</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.054620909403626</v>
+        <v>3.148169474512008</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.02624668658323876</v>
+        <v>0.031174009054077554</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.044618793952745955</v>
+        <v>0.060522840999253896</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.19784660904132426</v>
+        <v>0.16377816370529402</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7789074532279647</v>
+        <v>0.7494122661831832</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7939493249679207</v>
+        <v>0.7598278750499701</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9045286327911758</v>
+        <v>0.876194757792268</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2594176029458851</v>
+        <v>0.20863539838385595</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.853175073774029</v>
+        <v>3.1636805279049733</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.028752374902836428</v>
+        <v>0.029102087138519136</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.050900820894228836</v>
+        <v>0.06288516443000233</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.18965522393872006</v>
+        <v>0.1666624904666122</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.761103700063189</v>
+        <v>0.7221913021983286</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7788668779989696</v>
+        <v>0.7490267348449366</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8961028221174434</v>
+        <v>0.8838146331202942</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.24253707407872752</v>
+        <v>0.19917184471075816</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.522162898759871</v>
+        <v>2.9844881461065254</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.03093809910089043</v>
+        <v>0.033665652628339884</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05191777553701947</v>
+        <v>0.06809731173973763</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.18008308175508297</v>
+        <v>0.1471758645343269</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.767394425682245</v>
+        <v>0.7122473296696694</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7859763824778653</v>
+        <v>0.7441362962524882</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8831878111154993</v>
+        <v>0.8796642076512049</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.25029212410192797</v>
+        <v>0.1950809153635075</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.6723815417080217</v>
+        <v>2.9083308236122765</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03004224993461276</v>
+        <v>0.034666786901453674</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.04745127595549692</v>
+        <v>0.06868119581591153</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1884452044163123</v>
+        <v>0.1471758645343269</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7680769998282911</v>
+        <v>0.7090641546340994</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7859232527558795</v>
+        <v>0.739882881074163</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8845047792815017</v>
+        <v>0.8620253523203207</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2502328681292058</v>
+        <v>0.19161554953198953</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.6712219466771816</v>
+        <v>2.8444220977440313</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.029968257477295535</v>
+        <v>0.03506149850564887</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.04797481937007605</v>
+        <v>0.06397659884511572</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1884452044163123</v>
+        <v>0.14294821215491293</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7114827051940177</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7421287056368034</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8645331397811828</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.19343474809889982</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.877903519542424</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03473101324433251</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06453933001576898</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1471758645343269</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>141.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6654974307784499</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7061324042240527</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6975866491940207</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5837229882457928</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.3191489361702127</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1232551480672477</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5468395038468999</v>
+        <v>0.2940073482523886</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5825902142628795</v>
+        <v>0.429531322219472</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5451113232809658</v>
+        <v>0.3742185996739596</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4348734081535921</v>
+        <v>0.2719066116516551</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.8297872340425534</v>
+        <v>0.9645390070921985</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2418732786084015</v>
+        <v>0.18560124375085485</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6472694393253209</v>
+        <v>0.5882004191340441</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6904381269036889</v>
+        <v>0.640546329186818</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6813472282192957</v>
+        <v>0.6175537212370893</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5708361884463181</v>
+        <v>0.4806726988145835</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4184397163120566</v>
+        <v>3.3191489361702127</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0222945365960852</v>
+        <v>1.1232551480672477</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6242663952145923</v>
+        <v>0.4720911380296185</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6579681929186707</v>
+        <v>0.5155026650778981</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6377206326685185</v>
+        <v>0.47732634951957104</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5286094256053079</v>
+        <v>0.33353378842637105</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8085106382978724</v>
+        <v>3.8297872340425534</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2006836958108569</v>
+        <v>1.2418732786084015</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5765797175952754</v>
+        <v>0.5881707556378591</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5480784887781652</v>
+        <v>0.5864088244174226</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5714327073870049</v>
+        <v>0.6133579708717382</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.45336851698718156</v>
+        <v>0.5549552644467083</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6099290780141844</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.4029206761273327</v>
+        <v>0.3771594359439792</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5456201243479075</v>
+        <v>0.6386924379847857</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5146814192036105</v>
+        <v>0.6272216660518185</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5361916083158227</v>
+        <v>0.6620715624110174</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.4082508430086</v>
+        <v>0.5112350328511939</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.6453900709219859</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.4886943069733942</v>
+        <v>1.4029206761273327</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.405661369707354</v>
+        <v>0.607327698573667</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.398477781638256</v>
+        <v>0.592470194168811</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.352468765868725</v>
+        <v>0.6244390500216304</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.27955285387178697</v>
+        <v>0.46325444692116097</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.9148936170212765</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2159027316720437</v>
+        <v>1.4886943069733942</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.42755717495008727</v>
+        <v>0.1276584910736571</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.39887282692088943</v>
+        <v>0.24096289427198003</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.350674376047041</v>
+        <v>0.15305544648630515</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.24835873177214277</v>
+        <v>0.10183212512296043</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>3.297872340425532</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7060592890847435</v>
+        <v>0.20256711147285467</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5126351952145509</v>
+        <v>0.4025054721306581</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4801435320170248</v>
+        <v>0.414170444139743</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.39403835637962886</v>
+        <v>0.3799939736714394</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3579375735670962</v>
+        <v>0.2591783270428224</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.3475177304964538</v>
+        <v>2.9148936170212765</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5990435337718825</v>
+        <v>1.2159027316720437</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6172531563261336</v>
+        <v>0.4350826923038946</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6185824580969196</v>
+        <v>0.40610074544374547</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5548543379284774</v>
+        <v>0.36138299021250514</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5096271711695616</v>
+        <v>0.23225151848372547</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.475177304964539</v>
+        <v>3.297872340425532</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3179072170013006</v>
+        <v>1.7060592890847435</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5620004127127796</v>
+        <v>0.5610637741931238</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.55498250780173</v>
+        <v>0.5003447673422116</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5263131376099707</v>
+        <v>0.4183091000171556</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4498342504938351</v>
+        <v>0.3939406096663658</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.226950354609929</v>
+        <v>1.3475177304964538</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.2669919061994332</v>
+        <v>1.5990435337718825</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>141.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5544888567812374</v>
+        <v>0.5876256780938647</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5554684720325922</v>
+        <v>0.5410848157749016</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5248149932751935</v>
+        <v>0.4715231897703219</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4439279807566448</v>
+        <v>0.45863835479926185</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.475177304964539</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3179072170013006</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>141.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6065410815484492</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5755951091164166</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5526589927734126</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.48681762665243694</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.226950354609929</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.2669919061994332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>141.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5895779735932807</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5574783851562687</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5306447291543785</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.469686709117566</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.0851063829787235</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2391780784174626</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.03546099290780142</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.07801418439716312</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.375886524822695</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4397163120567376</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.07092198581560284</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.03546099290780142</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.014184397163120567</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.028368794326241134</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.3404255319148936</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.1702127659574468</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.41134751773049644</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.0070921985815602835</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0851063829787234</v>
+        <v>0.9645390070921985</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02127659574468085</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.475177304964539</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.07801418439716312</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.0070921985815602835</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.028368794326241134</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.07092198581560284</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
         <v>0.375886524822695</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.07801418439716312</v>
+        <v>0.4397163120567376</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4397163120567376</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8297872340425532</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.0070921985815602835</v>
+        <v>0.014184397163120567</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0</v>
+        <v>0.028368794326241134</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.07801418439716312</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.05673758865248227</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.028368794326241134</v>
+        <v>0.41134751773049644</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8297872340425532</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.014184397163120567</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.06382978723404255</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.03546099290780142</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.05673758865248227</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.0425531914893617</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.14893617021276595</v>
+        <v>0.0070921985815602835</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.0425531914893617</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.41843971631205673</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.3120567375886525</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.03546099290780142</v>
+        <v>0.028368794326241134</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.0425531914893617</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.14893617021276595</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.2127659574468085</v>
+        <v>0.014184397163120567</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.0851063829787234</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.0851063829787234</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.425531914893617</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.5177304964539007</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.09219858156028368</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.07801418439716312</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.14893617021276595</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.16312056737588654</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.15602836879432624</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.0851063829787234</v>
+        <v>0.14893617021276595</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.07092198581560284</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.5035460992907801</v>
+        <v>0.41843971631205673</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.18439716312056736</v>
+        <v>0.3120567375886525</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="C53" t="n" s="110">
         <v>0.14893617021276595</v>
       </c>
-      <c r="C53" t="n" s="110">
-        <v>0.09219858156028368</v>
-      </c>
       <c r="D53" t="n" s="111">
-        <v>0.3120567375886525</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.2765957446808511</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.1702127659574468</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.1773049645390071</v>
+        <v>0.5177304964539007</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.07092198581560284</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3617021276595745</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.2695035460992908</v>
+        <v>0.14893617021276595</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.12056737588652482</v>
+        <v>0.16312056737588654</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.15602836879432624</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.07092198581560284</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.18439716312056736</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.09219858156028368</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.3120567375886525</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.2765957446808511</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.1773049645390071</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.07092198581560284</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3617021276595745</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.2695035460992908</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.12056737588652482</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8703435251559363</v>
+        <v>0.8829436754038669</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8740503121219234</v>
+        <v>0.9890762823256765</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8699501622944776</v>
+        <v>0.9847129387635737</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6343585340302215</v>
+        <v>0.9679295050422185</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.939678270326739</v>
+        <v>90.54392577817359</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.018147077664418414</v>
+        <v>0.0025253845354468295</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.5939716312056738</v>
+        <v>0.475177304964539</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.975841672925498</v>
+        <v>1.0810298165962609</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6328235381626239</v>
+        <v>0.9633388414589127</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8196190258925514</v>
+        <v>0.9889345867606736</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8250037258370413</v>
+        <v>0.9898143740934433</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7744777225688351</v>
+        <v>0.9798341499911644</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6111172442100529</v>
+        <v>0.9798341499911642</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.714407376860993</v>
+        <v>97.17756995731357</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.026459404310017347</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.011620241492362259</v>
-      </c>
+        <v>0.0017865366438961055</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5863576351241501</v>
+        <v>0.9798341499911644</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8563351040385999</v>
+        <v>0.6276787030213706</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8612763428260688</v>
+        <v>0.97991218785743</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8221314533863886</v>
+        <v>0.9606155236765783</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6742167235802995</v>
+        <v>0.9606155236765783</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>6.208575814478444</v>
+        <v>48.781429301641204</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.02143972005470918</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.009001076951811095</v>
-      </c>
+        <v>0.009330306960302601</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.7288442389879337</v>
+        <v>0.9606155236765782</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8234087900022604</v>
+        <v>0.6514307911433381</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8243878009688532</v>
+        <v>0.9813271363215912</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7628779127147389</v>
+        <v>0.9633388414589127</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6101042892291288</v>
+        <v>0.9633388414589126</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.694365229277942</v>
+        <v>52.55364968236154</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.02576463074988531</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0037075729614871947</v>
-      </c>
+        <v>0.009020381115595066</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5863576351241501</v>
+        <v>0.9633388414589127</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8388750957143188</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8432550732230768</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8030397865194808</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6419958791014047</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.379791809295262</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.023706505375323005</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012172332091748506</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6792894412010977</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>141.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9739818543199751</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.985240747643946</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.970790816497655</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.966819011971485</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3771594359439792</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>141.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8684618469383824</v>
+        <v>0.9943995011531053</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.872381498551813</v>
+        <v>0.9917165579317702</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8291500649911363</v>
+        <v>0.9879746151063207</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7605387563965025</v>
+        <v>0.9827621378652857</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.3191489361702127</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1232551480672477</v>
+        <v>1.4029206761273327</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>141.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.829621764942238</v>
+        <v>0.9946161381551217</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8168310126569818</v>
+        <v>0.9907989226636098</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7303639644167451</v>
+        <v>0.9862192985512225</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6754868301466671</v>
+        <v>0.9817910732468426</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.8297872340425534</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2418732786084015</v>
+        <v>1.4886943069733942</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>141.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8606796428866994</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8732732672627678</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8387610806043447</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7618232810730543</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4184397163120566</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0222945365960852</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>141.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8476081226579214</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8451970718480879</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.78010881342554</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7132766937036764</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8085106382978724</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2006836958108569</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8297872340425532</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8297872340425532</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.0070921985815602835</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.07801418439716312</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.05673758865248227</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.028368794326241134</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.8297872340425532</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.014184397163120567</v>
+      </c>
+      <c r="E27" t="n" s="227">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="F27" t="n" s="228">
         <v>0.03546099290780142</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.07801418439716312</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.375886524822695</v>
-      </c>
-      <c r="F27" t="n" s="228">
-        <v>0.4397163120567376</v>
-      </c>
       <c r="G27" t="n" s="229">
-        <v>0.07092198581560284</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.03546099290780142</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.014184397163120567</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.028368794326241134</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.3404255319148936</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1702127659574468</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.41134751773049644</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.0070921985815602835</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.0851063829787234</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02127659574468085</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.475177304964539</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.07801418439716312</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.0070921985815602835</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.028368794326241134</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.07092198581560284</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.375886524822695</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07801418439716312</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4397163120567376</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7994180004157141</v>
+        <v>0.657254644977257</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.8265789217186825</v>
+        <v>0.7789822968065914</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7044179936918751</v>
+        <v>0.7302134634195792</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7044179936918753</v>
+        <v>0.5401963733736744</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>4.766311741977732</v>
+        <v>3.5245244410350156</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.030381342127138024</v>
+        <v>0.023537961124202915</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.106382978723404</v>
+        <v>2.390070921985816</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.3519939119662931</v>
+        <v>0.9360143863435435</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7044179936918752</v>
+        <v>0.5071987265812229</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7044179936918753</v>
+        <v>0.7994180004157141</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7044179936918753</v>
+        <v>0.8265789217186825</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.49620470983688647</v>
+        <v>0.7044179936918751</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.7044179936918753</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7044179936918753</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>4.766311741977732</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.030381342127138024</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.7044179936918753</v>
+        <v>0.7044179936918752</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.49620470983688647</v>
+        <v>0.17479560191711307</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7044179936918753</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.49620470983688647</v>
-      </c>
+        <v>0.5805257787761733</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4089723998479252</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4089723998479253</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.3839367222197219</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.029837527742348796</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7044179936918753</v>
+        <v>0.40897239984792527</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.28242570005153755</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6730349722782756</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5071987265812226</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5071987265812228</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.0584310712615013</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.03423506139500105</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5071987265812229</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>141.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8941170414341264</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.923151665137391</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7747976198752682</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.704417993691875</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.9148936170212765</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2159027316720437</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>141.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.947697703803537</v>
+        <v>0.5402347843140222</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.923151665137391</v>
+        <v>0.7670099519211505</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.7747976198752685</v>
+        <v>0.5521467500986188</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7044179936918751</v>
+        <v>0.48610998439292313</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9574468085106383</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.20256711147285467</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>141.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8975728760041045</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8852716810558854</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.8269954576372307</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.725366815050762</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.9148936170212765</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2159027316720437</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>141.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9420821760005199</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8459533920440384</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7556627900627921</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7061967589632763</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.297872340425532</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7060592890847435</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.0425531914893617</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9574468085106383</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.14893617021276595</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0425531914893617</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.41843971631205673</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.3120567375886525</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.03546099290780142</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.0425531914893617</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.14893617021276595</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.2127659574468085</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.0851063829787234</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.0851063829787234</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.425531914893617</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8641776279632141</v>
+        <v>0.6881278979907264</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8642985265368084</v>
+        <v>0.8266109534922071</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7610261558446596</v>
+        <v>0.7652974763380967</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7610261558446596</v>
+        <v>0.6137692302681678</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>6.369116741913973</v>
+        <v>4.767377006453836</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.022863231974194285</v>
+        <v>0.02322100326920295</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.1560283687943262</v>
+        <v>2.7044917257683214</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1758503788642403</v>
+        <v>0.7633387383688451</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7610261558446596</v>
+        <v>0.5934149060030467</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7610261558446596</v>
+        <v>0.8065976714100904</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7610261558446596</v>
+        <v>0.8090200825835498</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.5791608098797001</v>
+        <v>0.6792894412010976</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7610261558446596</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7610261558446596</v>
-      </c>
+        <v>0.6792894412010977</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>4.236152646455509</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.03227325732958472</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7610261558446596</v>
+        <v>0.6792894412010977</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.5791608098797001</v>
+        <v>0.2956959807250028</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7610261558446596</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.5791608098797001</v>
-      </c>
+        <v>0.7448341342451481</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.5934149060030467</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.5934149060030467</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>2.919019485783182</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.02834638369582973</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7610261558446596</v>
+        <v>0.5934149060030467</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3092579131698936</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7249804049190207</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.5686033436003588</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.568603343600359</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>2.636104546316239</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.031315169749889585</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.568603343600359</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>141.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9397619269209805</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9383565835663592</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8185923789421569</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7610261558446596</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.226950354609929</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.2669919061994332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>141.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9369355565488622</v>
+        <v>0.6817567409576955</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9383565835663592</v>
+        <v>0.8363462664768693</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8185923789421569</v>
+        <v>0.6920400756436682</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7610261558446596</v>
+        <v>0.634593632537184</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.0851063829787235</v>
+        <v>0.9645390070921985</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2391780784174626</v>
+        <v>0.18560124375085485</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>141.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9049630424614415</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.869565619232796</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7745477162230199</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6977627342363122</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.3191489361702127</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1232551480672477</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>141.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.923586117481411</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8791636222028226</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.794869412434008</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7051586889864433</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.8297872340425534</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2418732786084015</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.14893617021276595</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.09219858156028368</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.3120567375886525</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.2765957446808511</v>
-      </c>
-      <c r="F23" t="n" s="458">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.03546099290780142</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9645390070921985</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.03546099290780142</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.07801418439716312</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.375886524822695</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4397163120567376</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.07092198581560284</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.03546099290780142</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.014184397163120567</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.028368794326241134</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.3404255319148936</v>
+      </c>
+      <c r="F27" t="n" s="458">
         <v>0.1702127659574468</v>
       </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.1773049645390071</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.07092198581560284</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3617021276595745</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.2695035460992908</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.12056737588652482</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="G27" t="n" s="459">
+        <v>0.41134751773049644</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9889345867606736</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9898143740934433</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9798341499911644</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9798341499911642</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>97.17756995731357</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0017865366438961055</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.6276595744680851</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.4385064865526689</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9798341499911644</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5730879951515966</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5807144006612255</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4091596511172748</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.40915965111727504</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.3850091717364703</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.07032395891340372</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.9113475177304964</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2266150984711406</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.40915965111727515</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9798341499911644</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9798341499911644</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9600749614889076</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9798341499911644</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9798341499911644</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9798341499911644</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.40915965111727515</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.40915965111727515</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.16741162010240995</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.40915965111727515</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.40915965111727515</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.40915965111727515</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9600749614889076</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9798341499911644</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9600749614889076</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9798341499911644</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.16741162010240995</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.40915965111727515</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.16741162010240995</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.40915965111727515</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>141.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9946406998327153</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.994945764851322</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9848627090818476</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9798341499911641</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6099290780141844</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.4029206761273327</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8716173449806034</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8393925336567138</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5369223739143699</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.4091596511172752</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.3475177304964538</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5990435337718825</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>141.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9952419130321428</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.994945764851322</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9848627090818476</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9798341499911644</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.6453900709219859</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.4886943069733942</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8039079715629066</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8393925336567138</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5369223739143699</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.4091596511172752</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.475177304964539</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3179072170013006</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.0070921985815602835</v>
-      </c>
-      <c r="D23" t="n" s="570">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.5177304964539007</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.09219858156028368</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.07801418439716312</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.16312056737588654</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="571">
-        <v>0.07801418439716312</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.05673758865248227</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.028368794326241134</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.014184397163120567</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.06382978723404255</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.03546099290780142</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.05673758865248227</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.15602836879432624</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.07092198581560284</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.18439716312056736</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5730879951515966</v>
+        <v>0.8641776279632141</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5807144006612255</v>
+        <v>0.8642985265368084</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4091596511172748</v>
+        <v>0.7610261558446596</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.40915965111727504</v>
+        <v>0.7610261558446596</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.3850091717364703</v>
+        <v>6.369116741913973</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.07032395891340372</v>
+        <v>0.022863231974194285</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.9113475177304964</v>
+        <v>2.1560283687943262</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2266150984711406</v>
+        <v>1.1758503788642403</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.40915965111727515</v>
+        <v>0.7610261558446596</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.40915965111727515</v>
+        <v>0.7610261558446596</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.40915965111727515</v>
+        <v>0.7610261558446596</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.16741162010240995</v>
+        <v>0.5791608098797001</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.40915965111727515</v>
+        <v>0.7610261558446596</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.40915965111727515</v>
+        <v>0.7610261558446596</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.40915965111727515</v>
+        <v>0.7610261558446596</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.16741162010240995</v>
+        <v>0.5791608098797001</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.40915965111727515</v>
+        <v>0.7610261558446596</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.16741162010240995</v>
+        <v>0.5791608098797001</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.40915965111727515</v>
+        <v>0.7610261558446596</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>141.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8716173449806034</v>
+        <v>0.9397619269209805</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8393925336567138</v>
+        <v>0.9383565835663592</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5369223739143699</v>
+        <v>0.8185923789421569</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4091596511172752</v>
+        <v>0.7610261558446596</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.3475177304964538</v>
+        <v>2.226950354609929</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5990435337718825</v>
+        <v>1.2669919061994332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>141.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8039079715629066</v>
+        <v>0.9369355565488622</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8393925336567138</v>
+        <v>0.9383565835663592</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5369223739143699</v>
+        <v>0.8185923789421569</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.4091596511172752</v>
+        <v>0.7610261558446596</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.475177304964539</v>
+        <v>2.0851063829787235</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3179072170013006</v>
+        <v>1.2391780784174626</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.5177304964539007</v>
+        <v>0.14893617021276595</v>
       </c>
       <c r="C23" t="n" s="684">
         <v>0.09219858156028368</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.07801418439716312</v>
+        <v>0.3120567375886525</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.14893617021276595</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.16312056737588654</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.15602836879432624</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.0851063829787234</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.07092198581560284</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.5035460992907801</v>
+        <v>0.2695035460992908</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.18439716312056736</v>
+        <v>0.12056737588652482</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8077645551329763</v>
+        <v>0.776491072363653</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8163094733869657</v>
+        <v>0.8033016377776153</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9054538142802625</v>
+        <v>0.8971860432366646</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.30766807572291494</v>
+        <v>0.28997072950429337</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.4439388815440495</v>
+        <v>4.083926417594734</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02503194263417805</v>
+        <v>0.026865655398615275</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.376595744680851</v>
+        <v>1.7673758865248228</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7870050188506097</v>
+        <v>0.6962651848973215</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.22943520430065453</v>
+        <v>0.22859710804041386</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7804431501796636</v>
+        <v>0.7638646742553766</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7853813123855665</v>
+        <v>0.7742681919269113</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8775027689464865</v>
+        <v>0.8729200669015423</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.28906732058175344</v>
+        <v>0.27594738134128766</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.659426497829112</v>
+        <v>3.430035840036396</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.02852195247457009</v>
+        <v>0.02915186141995966</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04104737331321829</v>
+        <v>0.04547355074639499</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.216943194462412</v>
+        <v>0.2247570030451524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7927325275726704</v>
+        <v>0.7326339641643238</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7996581473136462</v>
+        <v>0.7685527730000565</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8926423609477296</v>
+        <v>0.8678613515912391</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.3072376566029138</v>
+        <v>0.26951842895111733</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.9914682658223923</v>
+        <v>3.3206393654491446</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.02701608928973608</v>
+        <v>0.03197045990416654</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04266587174822663</v>
+        <v>0.04578263342870477</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.23937750786170936</v>
+        <v>0.21652414633229167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7872478463523642</v>
+        <v>0.741205728592442</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7917888263198649</v>
+        <v>0.7742099772882647</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8811942849779586</v>
+        <v>0.8704362259995962</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2970296649925445</v>
+        <v>0.27588084294107706</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.8028162097402713</v>
+        <v>3.4288936596489643</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.027727386577155008</v>
+        <v>0.030828261190509552</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.039511434165130074</v>
+        <v>0.04438638394678001</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.23937750786170936</v>
+        <v>0.22433795491503203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7878412002002296</v>
+        <v>0.7818437061052668</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7941278269541293</v>
+        <v>0.8087398187098711</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8850235789001646</v>
+        <v>0.8967715304947107</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3000130759122628</v>
+        <v>0.31964971665526953</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.857383031446355</v>
+        <v>4.2284798291760834</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.027578061323525683</v>
+        <v>0.0274461984617918</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.040660865224276276</v>
+        <v>0.05852879404894936</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.23937750786170936</v>
+        <v>0.2595321143724438</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7926629887413242</v>
+        <v>0.7539943385355344</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8043184120752508</v>
+        <v>0.7796868445909362</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8832829856837275</v>
+        <v>0.8779262355059059</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.3135190958733774</v>
+        <v>0.2822390460578117</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.110342830949212</v>
+        <v>3.538993589117555</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.027183481952609282</v>
+        <v>0.029069372820840725</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.045534298497547684</v>
+        <v>0.06797919709903684</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.23937750786170936</v>
+        <v>0.22901615617053422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.793416981329977</v>
+        <v>0.769230792825068</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.804422220561041</v>
+        <v>0.7918843328693952</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8837172625772601</v>
+        <v>0.8868054594360268</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3136610957443988</v>
+        <v>0.29715066379590344</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.113055291192247</v>
+        <v>3.8050202744824664</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02708750991845977</v>
+        <v>0.027202853786747413</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04613452865038088</v>
+        <v>0.06492662547364088</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21226499320690984</v>
+        <v>0.2393775078617094</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7856432058942047</v>
+        <v>0.7630964302146201</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.800259197022631</v>
+        <v>0.7943843694056806</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8605666909545454</v>
+        <v>0.899518264430992</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3080376679206526</v>
+        <v>0.3003428664192629</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.006488334350503</v>
+        <v>3.863443489726733</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.027854647260244024</v>
+        <v>0.028735866220463945</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03867193356524423</v>
+        <v>0.07316576622343779</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.24958981081138892</v>
+        <v>0.21226499320690984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7922544582765682</v>
+        <v>0.7617048295895344</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8046036088992078</v>
+        <v>0.7954951722157548</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8632813155302236</v>
+        <v>0.8970591967404415</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3139094381395868</v>
+        <v>0.301776751483833</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.1178017893082055</v>
+        <v>3.88986011154226</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.026986779676333204</v>
+        <v>0.02848124420190987</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03733161992487281</v>
+        <v>0.07287701136409855</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2595321143724438</v>
+        <v>0.22901615617053422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8053642413326969</v>
+        <v>0.7482876041731938</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8125539751815036</v>
+        <v>0.7834956259223022</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9088784990681467</v>
+        <v>0.8710800100572025</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.32507773768826387</v>
+        <v>0.286780962922617</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.334869069473721</v>
+        <v>3.61884432709487</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.025836066425842016</v>
+        <v>0.030166857017544246</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.05017415571828393</v>
+        <v>0.06868798497347356</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.22475700304515236</v>
+        <v>0.22433795491503203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7911967645106646</v>
+        <v>0.7511722313563997</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8010748010317179</v>
+        <v>0.786487686624421</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9008131602936461</v>
+        <v>0.8729419480131467</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3091280037733947</v>
+        <v>0.2904206344747547</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.027015205647458</v>
+        <v>3.6835706296758133</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.02746691003067859</v>
+        <v>0.02972675394226026</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05136189396404748</v>
+        <v>0.06881313328560071</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.20719220615910605</v>
+        <v>0.19705320428144474</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6848131729627979</v>
+        <v>0.6822623670698371</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7229963589830343</v>
+        <v>0.6848373691416683</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.710105857935923</v>
+        <v>0.7118703529598938</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5968588437484713</v>
+        <v>0.6516461823958472</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.3191489361702127</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1232551480672477</v>
+        <v>0.3771594359439792</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5856758193037879</v>
+        <v>0.728363620680369</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6164467991026013</v>
+        <v>0.7233590257918293</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.5726188233705003</v>
+        <v>0.7583839009752935</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.46683592734594204</v>
+        <v>0.6095664551377185</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.8297872340425534</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2418732786084015</v>
+        <v>1.4029206761273327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.630172757825323</v>
+        <v>0.6944129627181787</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6763057368834637</v>
+        <v>0.6852360607560101</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6593758405572889</v>
+        <v>0.7175172473813851</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5416201322677386</v>
+        <v>0.555407063749206</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.4184397163120566</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0222945365960852</v>
+        <v>1.4886943069733942</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6226225110811937</v>
+        <v>0.29498762268438145</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6588112271469199</v>
+        <v>0.42297723181207475</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6316227121637343</v>
+        <v>0.35147367397657703</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.514935038887375</v>
+        <v>0.27036856742423826</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.8085106382978724</v>
+        <v>0.9645390070921985</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2006836958108569</v>
+        <v>0.18560124375085485</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5884676124771067</v>
+        <v>0.5942742228848252</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5796128853596664</v>
+        <v>0.6471383268624872</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5447263374176429</v>
+        <v>0.612922769679388</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.4674078040358116</v>
+        <v>0.4740014004697315</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.226950354609929</v>
+        <v>3.3191489361702127</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.2669919061994332</v>
+        <v>1.1232551480672477</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5799371177553657</v>
+        <v>0.5048730414590495</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5787802082015341</v>
+        <v>0.5577893655163911</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5430524998970011</v>
+        <v>0.5083141050609062</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4603732108303295</v>
+        <v>0.35379459116455375</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.0851063829787235</v>
+        <v>3.8297872340425534</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2391780784174626</v>
+        <v>1.2418732786084015</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6509002448814118</v>
+        <v>0.6107556236109234</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6117555895561643</v>
+        <v>0.5386619982640202</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.636829062828274</v>
+        <v>0.4399741635207399</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5285205603481914</v>
+        <v>0.43367633514260223</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.6099290780141844</v>
+        <v>1.3475177304964538</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.4029206761273327</v>
+        <v>1.5990435337718825</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6177689348760078</v>
+        <v>0.565798922730906</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5773239460346637</v>
+        <v>0.5300702985933837</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6004682281843461</v>
+        <v>0.4387152280175843</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.4785819199087853</v>
+        <v>0.41537874515486933</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.6453900709219859</v>
+        <v>2.475177304964539</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.4886943069733942</v>
+        <v>1.3179072170013006</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5553679837553906</v>
+        <v>0.6392083148880189</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5118338307094119</v>
+        <v>0.619923603314819</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.41443489734093575</v>
+        <v>0.5881082249076952</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3899727768692665</v>
+        <v>0.5110550286147918</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.3475177304964538</v>
+        <v>2.226950354609929</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5990435337718825</v>
+        <v>1.2669919061994332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>141.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.6044303306202767</v>
+        <v>0.620006196495099</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6053619375567608</v>
+        <v>0.5981150458171501</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5285693218538903</v>
+        <v>0.5635948413289108</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.48091282676733343</v>
+        <v>0.49084773762194</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.475177304964539</v>
+        <v>2.0851063829787235</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3179072170013006</v>
+        <v>1.2391780784174626</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.03546099290780142</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.07801418439716312</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="D39" t="n" s="799">
         <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.375886524822695</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4397163120567376</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.07092198581560284</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.03546099290780142</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.014184397163120567</v>
+        <v>0.0070921985815602835</v>
       </c>
       <c r="D40" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="800">
+        <v>0.07801418439716312</v>
+      </c>
+      <c r="F40" t="n" s="801">
+        <v>0.05673758865248227</v>
+      </c>
+      <c r="G40" t="n" s="802">
         <v>0.028368794326241134</v>
-      </c>
-      <c r="E40" t="n" s="800">
-        <v>0.3404255319148936</v>
-      </c>
-      <c r="F40" t="n" s="801">
-        <v>0.1702127659574468</v>
-      </c>
-      <c r="G40" t="n" s="802">
-        <v>0.41134751773049644</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.0070921985815602835</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.0851063829787234</v>
+        <v>0.0</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.02127659574468085</v>
+        <v>0.014184397163120567</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3333333333333333</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.475177304964539</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.07801418439716312</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.0070921985815602835</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.028368794326241134</v>
+        <v>0.9645390070921985</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.07092198581560284</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.375886524822695</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.07801418439716312</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.4397163120567376</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.14893617021276595</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.09219858156028368</v>
+        <v>0.07801418439716312</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.3120567375886525</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.2765957446808511</v>
+        <v>0.375886524822695</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.1702127659574468</v>
+        <v>0.4397163120567376</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.1773049645390071</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.07092198581560284</v>
+        <v>0.014184397163120567</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.3617021276595745</v>
+        <v>0.028368794326241134</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.2695035460992908</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.12056737588652482</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.41134751773049644</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8297872340425532</v>
+        <v>0.5177304964539007</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.0070921985815602835</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="D45" t="n" s="799">
+        <v>0.07801418439716312</v>
+      </c>
+      <c r="E45" t="n" s="800">
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="F45" t="n" s="801">
+        <v>0.16312056737588654</v>
+      </c>
+      <c r="G45" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.07801418439716312</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.05673758865248227</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.028368794326241134</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8297872340425532</v>
+        <v>0.15602836879432624</v>
       </c>
       <c r="C46" t="n" s="798">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="D46" t="n" s="799">
+        <v>0.07092198581560284</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.5035460992907801</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.18439716312056736</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.014184397163120567</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.06382978723404255</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.03546099290780142</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.05673758865248227</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.5177304964539007</v>
+        <v>0.14893617021276595</v>
       </c>
       <c r="C47" t="n" s="798">
         <v>0.09219858156028368</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.07801418439716312</v>
+        <v>0.3120567375886525</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.14893617021276595</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.16312056737588654</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.15602836879432624</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.0851063829787234</v>
+        <v>0.07092198581560284</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.07092198581560284</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.5035460992907801</v>
+        <v>0.2695035460992908</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.18439716312056736</v>
+        <v>0.12056737588652482</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
